--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Proc-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Proc-Tek.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H2">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I2">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J2">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N2">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O2">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P2">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q2">
-        <v>2.815623840829334</v>
+        <v>24.68785916960433</v>
       </c>
       <c r="R2">
-        <v>25.340614567464</v>
+        <v>222.190732526439</v>
       </c>
       <c r="S2">
-        <v>0.4144704128484425</v>
+        <v>0.7122249225036129</v>
       </c>
       <c r="T2">
-        <v>0.4144704128484425</v>
+        <v>0.712224922503613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H3">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I3">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J3">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>34.223758</v>
       </c>
       <c r="O3">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P3">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q3">
-        <v>0.8149513360551112</v>
+        <v>3.963875506995333</v>
       </c>
       <c r="R3">
-        <v>7.334562024496001</v>
+        <v>35.674879562958</v>
       </c>
       <c r="S3">
-        <v>0.1199638999386586</v>
+        <v>0.1143546269601054</v>
       </c>
       <c r="T3">
-        <v>0.1199638999386586</v>
+        <v>0.1143546269601054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H4">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I4">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J4">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N4">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O4">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P4">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q4">
-        <v>0.2211095003911112</v>
+        <v>1.307202936786333</v>
       </c>
       <c r="R4">
-        <v>1.98998550352</v>
+        <v>11.764826431077</v>
       </c>
       <c r="S4">
-        <v>0.03254814957271546</v>
+        <v>0.03771175556183565</v>
       </c>
       <c r="T4">
-        <v>0.03254814957271544</v>
+        <v>0.03771175556183565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.163675</v>
       </c>
       <c r="I5">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J5">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N5">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O5">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P5">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q5">
-        <v>2.150356639608333</v>
+        <v>3.876421213702777</v>
       </c>
       <c r="R5">
-        <v>19.353209756475</v>
+        <v>34.887790923325</v>
       </c>
       <c r="S5">
-        <v>0.3165405801960171</v>
+        <v>0.1118316407896566</v>
       </c>
       <c r="T5">
-        <v>0.3165405801960172</v>
+        <v>0.1118316407896566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.163675</v>
       </c>
       <c r="I6">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J6">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>34.223758</v>
       </c>
       <c r="O6">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P6">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q6">
         <v>0.6223970656277777</v>
@@ -818,10 +818,10 @@
         <v>5.60157359065</v>
       </c>
       <c r="S6">
-        <v>0.09161918755114014</v>
+        <v>0.01795565580587053</v>
       </c>
       <c r="T6">
-        <v>0.09161918755114014</v>
+        <v>0.01795565580587053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.163675</v>
       </c>
       <c r="I7">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J7">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N7">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O7">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P7">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q7">
-        <v>0.1688664072777778</v>
+        <v>0.2052534875527777</v>
       </c>
       <c r="R7">
-        <v>1.5197976655</v>
+        <v>1.847281387975</v>
       </c>
       <c r="S7">
-        <v>0.02485776989302606</v>
+        <v>0.005921398378918909</v>
       </c>
       <c r="T7">
-        <v>0.02485776989302606</v>
+        <v>0.005921398378918908</v>
       </c>
     </row>
   </sheetData>
